--- a/Results/Excel/TC08_EditVaccine_Result.xlsx
+++ b/Results/Excel/TC08_EditVaccine_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD9FFF8-FEF4-4BF8-A933-05CB3A67ADB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DA1120-56B2-4762-9440-D8AE5209A57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -582,6 +582,13 @@
       <sz val="8"/>
       <name val="Mic Shell Dlg"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -637,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -661,6 +668,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -969,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="O36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T54" sqref="T54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1107,10 +1117,10 @@
       <c r="P2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S2" s="4" t="s">
@@ -1169,14 +1179,14 @@
       <c r="P3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>40</v>
+      <c r="Q3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>41</v>
@@ -1231,14 +1241,14 @@
       <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>40</v>
+      <c r="Q4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>41</v>
@@ -1293,10 +1303,10 @@
       <c r="P5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="4" t="s">
+      <c r="Q5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S5" s="4" t="s">
@@ -1355,10 +1365,10 @@
       <c r="P6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="4" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S6" s="4" t="s">
@@ -1417,10 +1427,10 @@
       <c r="P7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="4" t="s">
+      <c r="Q7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S7" s="4" t="s">
@@ -1479,10 +1489,10 @@
       <c r="P8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="4" t="s">
+      <c r="Q8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S8" s="4" t="s">
@@ -1541,10 +1551,10 @@
       <c r="P9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="4" t="s">
+      <c r="Q9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S9" s="4" t="s">
@@ -1603,10 +1613,10 @@
       <c r="P10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="4" t="s">
+      <c r="Q10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S10" s="4" t="s">
@@ -1665,10 +1675,10 @@
       <c r="P11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="4" t="s">
+      <c r="Q11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S11" s="4" t="s">
@@ -1727,10 +1737,10 @@
       <c r="P12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R12" s="4" t="s">
+      <c r="Q12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S12" s="4" t="s">
@@ -1789,10 +1799,10 @@
       <c r="P13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R13" s="4" t="s">
+      <c r="Q13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="4" t="s">
@@ -1849,10 +1859,10 @@
       <c r="P14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S14" s="4" t="s">
@@ -1911,14 +1921,14 @@
       <c r="P15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>40</v>
+      <c r="Q15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>74</v>
@@ -1973,14 +1983,14 @@
       <c r="P16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>40</v>
+      <c r="Q16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T16" s="4" t="s">
         <v>74</v>
@@ -2035,14 +2045,14 @@
       <c r="P17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>40</v>
+      <c r="Q17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T17" s="4" t="s">
         <v>74</v>
@@ -2097,14 +2107,14 @@
       <c r="P18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>40</v>
+      <c r="Q18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>74</v>
@@ -2159,10 +2169,10 @@
       <c r="P19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R19" s="4" t="s">
+      <c r="Q19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S19" s="4" t="s">
@@ -2221,10 +2231,10 @@
       <c r="P20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" s="4" t="s">
+      <c r="Q20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S20" s="4" t="s">
@@ -2281,10 +2291,10 @@
       <c r="P21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="R21" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S21" s="4" t="s">
@@ -2343,10 +2353,10 @@
       <c r="P22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" s="4" t="s">
+      <c r="Q22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S22" s="4" t="s">
@@ -2405,10 +2415,10 @@
       <c r="P23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R23" s="4" t="s">
+      <c r="Q23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S23" s="4" t="s">
@@ -2467,10 +2477,10 @@
       <c r="P24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R24" s="4" t="s">
+      <c r="Q24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S24" s="4" t="s">
@@ -2529,10 +2539,10 @@
       <c r="P25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R25" s="4" t="s">
+      <c r="Q25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S25" s="4" t="s">
@@ -2589,14 +2599,14 @@
       <c r="P26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="Q26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>40</v>
+      <c r="Q26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T26" s="4" t="s">
         <v>102</v>
@@ -2651,10 +2661,10 @@
       <c r="P27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R27" s="4" t="s">
+      <c r="Q27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R27" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S27" s="4" t="s">
@@ -2713,10 +2723,10 @@
       <c r="P28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R28" s="4" t="s">
+      <c r="Q28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R28" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S28" s="4" t="s">
@@ -2775,10 +2785,10 @@
       <c r="P29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R29" s="4" t="s">
+      <c r="Q29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S29" s="4" t="s">
@@ -2837,10 +2847,10 @@
       <c r="P30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R30" s="4" t="s">
+      <c r="Q30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S30" s="4" t="s">
@@ -2897,10 +2907,10 @@
       <c r="P31" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="R31" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S31" s="4" t="s">
@@ -2959,10 +2969,10 @@
       <c r="P32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R32" s="4" t="s">
+      <c r="Q32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R32" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S32" s="4" t="s">
@@ -3021,10 +3031,10 @@
       <c r="P33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R33" s="4" t="s">
+      <c r="Q33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S33" s="4" t="s">
@@ -3083,10 +3093,10 @@
       <c r="P34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R34" s="4" t="s">
+      <c r="Q34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R34" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S34" s="4" t="s">
@@ -3145,10 +3155,10 @@
       <c r="P35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R35" s="4" t="s">
+      <c r="Q35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S35" s="4" t="s">
@@ -3207,10 +3217,10 @@
       <c r="P36" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R36" s="4" t="s">
+      <c r="Q36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S36" s="4" t="s">
@@ -3267,10 +3277,10 @@
       <c r="P37" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="Q37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R37" s="4" t="s">
+      <c r="R37" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S37" s="4" t="s">
@@ -3329,10 +3339,10 @@
       <c r="P38" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R38" s="4" t="s">
+      <c r="Q38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R38" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S38" s="4" t="s">
@@ -3391,10 +3401,10 @@
       <c r="P39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R39" s="4" t="s">
+      <c r="Q39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R39" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S39" s="4" t="s">
@@ -3453,10 +3463,10 @@
       <c r="P40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R40" s="4" t="s">
+      <c r="Q40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R40" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S40" s="4" t="s">
@@ -3515,10 +3525,10 @@
       <c r="P41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q41" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R41" s="4" t="s">
+      <c r="Q41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R41" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S41" s="4" t="s">
@@ -3575,10 +3585,10 @@
       <c r="P42" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="Q42" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R42" s="4" t="s">
+      <c r="R42" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S42" s="4" t="s">
@@ -3637,14 +3647,14 @@
       <c r="P43" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="Q43" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>40</v>
+      <c r="Q43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R43" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>146</v>
@@ -3699,14 +3709,14 @@
       <c r="P44" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="Q44" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>40</v>
+      <c r="Q44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T44" s="4" t="s">
         <v>146</v>
@@ -3761,14 +3771,14 @@
       <c r="P45" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="Q45" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>40</v>
+      <c r="Q45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R45" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T45" s="4" t="s">
         <v>146</v>
@@ -3823,14 +3833,14 @@
       <c r="P46" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="Q46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>40</v>
+      <c r="Q46" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T46" s="4" t="s">
         <v>146</v>
@@ -3885,10 +3895,10 @@
       <c r="P47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q47" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R47" s="4" t="s">
+      <c r="Q47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R47" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S47" s="4" t="s">
@@ -3947,10 +3957,10 @@
       <c r="P48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q48" s="4" t="s">
+      <c r="Q48" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R48" s="4" t="s">
+      <c r="R48" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S48" s="4" t="s">
@@ -4009,10 +4019,10 @@
       <c r="P49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q49" s="4" t="s">
+      <c r="Q49" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R49" s="4" t="s">
+      <c r="R49" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S49" s="4" t="s">
@@ -4071,10 +4081,10 @@
       <c r="P50" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q50" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R50" s="4" t="s">
+      <c r="Q50" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R50" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S50" s="4" t="s">
@@ -4133,10 +4143,10 @@
       <c r="P51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q51" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R51" s="4" t="s">
+      <c r="Q51" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R51" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S51" s="4" t="s">

--- a/Results/Excel/TC08_EditVaccine_Result.xlsx
+++ b/Results/Excel/TC08_EditVaccine_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DA1120-56B2-4762-9440-D8AE5209A57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8166B8-026E-4A3D-B3FB-39BE46DB74D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="171">
   <si>
     <t>TDID</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อวัคซีนต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น"</t>
-  </si>
-  <si>
     <t>TD3</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>จำนวนเข็มต้องเป็นตัวเลขอารบิกและมีจำนวนตัวเลข 1-10 ตัวเลขเท่านั้น</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "จำนวนเข็มต้องเป็นตัวเลขอารบิก และห้ามมีช่องว่าง ตัวอักษร หรือตัวอักษรพิเศษ"</t>
-  </si>
-  <si>
     <t>TD15</t>
   </si>
   <si>
@@ -328,9 +322,6 @@
     <t>ชื่อบริษัทผู้นำเข้าวัคซีนห้ามเป็นค่าว่าง</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "กรุณากรอกชื่อบริษัทผู้นำเข้า"</t>
-  </si>
-  <si>
     <t>TD26</t>
   </si>
   <si>
@@ -458,9 +449,6 @@
   </si>
   <si>
     <t>ราคาต่อเข็มต้องเป็นตัวเลขอารบิกและมีจำนวนตัวเลข 1-10 ตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ราคาต่อเข็มต้องเป็นตัวเลขอารบิก และห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ"</t>
   </si>
   <si>
     <t>TD43</t>
@@ -1189,24 +1177,24 @@
         <v>34</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>24</v>
@@ -1251,24 +1239,24 @@
         <v>34</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>24</v>
@@ -1298,10 +1286,10 @@
         <v>31</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>40</v>
@@ -1313,24 +1301,24 @@
         <v>18</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>24</v>
@@ -1360,27 +1348,27 @@
         <v>31</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="8" t="s">
-        <v>40</v>
+      <c r="R6" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
@@ -1422,10 +1410,10 @@
         <v>31</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>40</v>
@@ -1437,27 +1425,27 @@
         <v>18</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>25</v>
@@ -1484,10 +1472,10 @@
         <v>31</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>40</v>
@@ -1499,27 +1487,27 @@
         <v>18</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>25</v>
@@ -1546,10 +1534,10 @@
         <v>31</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="8" t="s">
         <v>40</v>
@@ -1561,30 +1549,30 @@
         <v>18</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>26</v>
@@ -1608,10 +1596,10 @@
         <v>31</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="8" t="s">
         <v>40</v>
@@ -1623,12 +1611,12 @@
         <v>18</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
@@ -1670,10 +1658,10 @@
         <v>31</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="8" t="s">
         <v>40</v>
@@ -1685,12 +1673,12 @@
         <v>18</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
@@ -1711,7 +1699,7 @@
         <v>25</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>27</v>
@@ -1732,10 +1720,10 @@
         <v>31</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="8" t="s">
         <v>40</v>
@@ -1747,12 +1735,12 @@
         <v>18</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
@@ -1794,10 +1782,10 @@
         <v>31</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>40</v>
@@ -1809,12 +1797,12 @@
         <v>18</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -1854,10 +1842,10 @@
         <v>31</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>33</v>
@@ -1874,31 +1862,31 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>28</v>
@@ -1916,10 +1904,10 @@
         <v>31</v>
       </c>
       <c r="O15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>40</v>
@@ -1931,12 +1919,12 @@
         <v>34</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -1960,7 +1948,7 @@
         <v>26</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>28</v>
@@ -1978,10 +1966,10 @@
         <v>31</v>
       </c>
       <c r="O16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>40</v>
@@ -1993,12 +1981,12 @@
         <v>34</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>21</v>
@@ -2022,7 +2010,7 @@
         <v>26</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>28</v>
@@ -2040,10 +2028,10 @@
         <v>31</v>
       </c>
       <c r="O17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="Q17" s="8" t="s">
         <v>40</v>
@@ -2055,12 +2043,12 @@
         <v>34</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>21</v>
@@ -2084,7 +2072,7 @@
         <v>26</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>28</v>
@@ -2102,10 +2090,10 @@
         <v>31</v>
       </c>
       <c r="O18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>40</v>
@@ -2117,12 +2105,12 @@
         <v>34</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>21</v>
@@ -2146,7 +2134,7 @@
         <v>26</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>28</v>
@@ -2164,10 +2152,10 @@
         <v>31</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>40</v>
@@ -2179,12 +2167,12 @@
         <v>18</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -2208,7 +2196,7 @@
         <v>26</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>28</v>
@@ -2226,10 +2214,10 @@
         <v>31</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="8" t="s">
         <v>40</v>
@@ -2241,12 +2229,12 @@
         <v>18</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>21</v>
@@ -2286,10 +2274,10 @@
         <v>31</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>33</v>
@@ -2306,7 +2294,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -2333,7 +2321,7 @@
         <v>27</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>28</v>
@@ -2348,10 +2336,10 @@
         <v>31</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q22" s="8" t="s">
         <v>40</v>
@@ -2363,12 +2351,12 @@
         <v>18</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>21</v>
@@ -2395,7 +2383,7 @@
         <v>27</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>28</v>
@@ -2410,10 +2398,10 @@
         <v>31</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="8" t="s">
         <v>40</v>
@@ -2425,12 +2413,12 @@
         <v>18</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>21</v>
@@ -2457,7 +2445,7 @@
         <v>27</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>28</v>
@@ -2472,10 +2460,10 @@
         <v>31</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q24" s="8" t="s">
         <v>40</v>
@@ -2487,12 +2475,12 @@
         <v>18</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>21</v>
@@ -2519,7 +2507,7 @@
         <v>27</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>28</v>
@@ -2534,10 +2522,10 @@
         <v>31</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="8" t="s">
         <v>40</v>
@@ -2549,12 +2537,12 @@
         <v>18</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>21</v>
@@ -2594,10 +2582,10 @@
         <v>31</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="8" t="s">
         <v>40</v>
@@ -2609,12 +2597,12 @@
         <v>34</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>21</v>
@@ -2644,7 +2632,7 @@
         <v>28</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>29</v>
@@ -2656,10 +2644,10 @@
         <v>31</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="8" t="s">
         <v>40</v>
@@ -2671,12 +2659,12 @@
         <v>18</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>21</v>
@@ -2706,7 +2694,7 @@
         <v>28</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>29</v>
@@ -2718,10 +2706,10 @@
         <v>31</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="8" t="s">
         <v>40</v>
@@ -2733,12 +2721,12 @@
         <v>18</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>21</v>
@@ -2768,7 +2756,7 @@
         <v>28</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>29</v>
@@ -2780,10 +2768,10 @@
         <v>31</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q29" s="8" t="s">
         <v>40</v>
@@ -2795,12 +2783,12 @@
         <v>18</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>21</v>
@@ -2830,7 +2818,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>29</v>
@@ -2842,10 +2830,10 @@
         <v>31</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q30" s="8" t="s">
         <v>40</v>
@@ -2857,12 +2845,12 @@
         <v>18</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
@@ -2902,10 +2890,10 @@
         <v>31</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>33</v>
@@ -2922,7 +2910,7 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>21</v>
@@ -2955,7 +2943,7 @@
         <v>28</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>30</v>
@@ -2964,10 +2952,10 @@
         <v>31</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q32" s="8" t="s">
         <v>40</v>
@@ -2979,12 +2967,12 @@
         <v>18</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>21</v>
@@ -3017,7 +3005,7 @@
         <v>28</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>30</v>
@@ -3026,10 +3014,10 @@
         <v>31</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="8" t="s">
         <v>40</v>
@@ -3041,12 +3029,12 @@
         <v>18</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>21</v>
@@ -3079,7 +3067,7 @@
         <v>28</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>30</v>
@@ -3088,10 +3076,10 @@
         <v>31</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q34" s="8" t="s">
         <v>40</v>
@@ -3103,12 +3091,12 @@
         <v>18</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>21</v>
@@ -3141,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>30</v>
@@ -3150,10 +3138,10 @@
         <v>31</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q35" s="8" t="s">
         <v>40</v>
@@ -3165,12 +3153,12 @@
         <v>18</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>21</v>
@@ -3203,7 +3191,7 @@
         <v>28</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>30</v>
@@ -3212,10 +3200,10 @@
         <v>31</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q36" s="8" t="s">
         <v>40</v>
@@ -3227,12 +3215,12 @@
         <v>18</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>21</v>
@@ -3272,10 +3260,10 @@
         <v>31</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q37" s="9" t="s">
         <v>33</v>
@@ -3292,7 +3280,7 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>21</v>
@@ -3328,16 +3316,16 @@
         <v>29</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q38" s="8" t="s">
         <v>40</v>
@@ -3349,12 +3337,12 @@
         <v>18</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>21</v>
@@ -3390,16 +3378,16 @@
         <v>29</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="8" t="s">
         <v>40</v>
@@ -3411,12 +3399,12 @@
         <v>18</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>21</v>
@@ -3452,16 +3440,16 @@
         <v>29</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q40" s="8" t="s">
         <v>40</v>
@@ -3473,12 +3461,12 @@
         <v>18</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>21</v>
@@ -3514,16 +3502,16 @@
         <v>29</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q41" s="8" t="s">
         <v>40</v>
@@ -3535,12 +3523,12 @@
         <v>18</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>21</v>
@@ -3580,10 +3568,10 @@
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q42" s="9" t="s">
         <v>33</v>
@@ -3600,7 +3588,7 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>21</v>
@@ -3639,13 +3627,13 @@
         <v>30</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>40</v>
@@ -3657,12 +3645,12 @@
         <v>34</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>21</v>
@@ -3701,13 +3689,13 @@
         <v>30</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q44" s="8" t="s">
         <v>40</v>
@@ -3719,12 +3707,12 @@
         <v>34</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>21</v>
@@ -3763,13 +3751,13 @@
         <v>30</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q45" s="8" t="s">
         <v>40</v>
@@ -3781,12 +3769,12 @@
         <v>34</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>21</v>
@@ -3825,13 +3813,13 @@
         <v>30</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q46" s="8" t="s">
         <v>40</v>
@@ -3843,12 +3831,12 @@
         <v>34</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>21</v>
@@ -3887,13 +3875,13 @@
         <v>30</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q47" s="8" t="s">
         <v>40</v>
@@ -3905,57 +3893,57 @@
         <v>18</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="M48" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="N48" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="O48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q48" s="9" t="s">
         <v>33</v>
@@ -3972,7 +3960,7 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>21</v>
@@ -3996,7 +3984,7 @@
         <v>26</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>28</v>
@@ -4014,10 +4002,10 @@
         <v>31</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q49" s="9" t="s">
         <v>33</v>
@@ -4034,49 +4022,49 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L50" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="M50" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="N50" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>39</v>
@@ -4091,12 +4079,12 @@
         <v>18</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>21</v>
@@ -4108,7 +4096,7 @@
         <v>23</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>24</v>
@@ -4123,22 +4111,22 @@
         <v>27</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>39</v>
@@ -4153,7 +4141,7 @@
         <v>18</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Excel/TC08_EditVaccine_Result.xlsx
+++ b/Results/Excel/TC08_EditVaccine_Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8166B8-026E-4A3D-B3FB-39BE46DB74D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6C047B-87B5-40DF-B85F-75F7576FBC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,376 +163,376 @@
     <t>แก้ไขข้อมูลสำเร็จ</t>
   </si>
   <si>
+    <t>TD5</t>
+  </si>
+  <si>
+    <t>1. วัคซีนจอห์นสันแอนด์จอห์นสัน (Johnson &amp; Johnson).</t>
+  </si>
+  <si>
+    <t>ชื่อวัคซีนต้องมีจำนวนตัวอักษร 2-50 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD6</t>
+  </si>
+  <si>
+    <t>วันที่นำเข้าห้ามเป็นวันในอนาคต และต้องเป็นวันที่มากกว่าวันที่ผลิต และน้อยกว่าวันที่หมดอายุ</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "วันที่นำเข้าห้ามเป็นวันในอนาคต และต้องเป็นวันที่มากกว่าวันที่ผลิต และน้อยกว่าวันที่หมดอายุ"</t>
+  </si>
+  <si>
+    <t>TD7</t>
+  </si>
+  <si>
+    <t>วันที่น้อยกว่าวันที่ผลิต</t>
+  </si>
+  <si>
+    <t>TD8</t>
+  </si>
+  <si>
+    <t>วันที่มากกว่าวันที่หมดอายุ</t>
+  </si>
+  <si>
+    <t>TD9</t>
+  </si>
+  <si>
+    <t>วันปัจจุบัน</t>
+  </si>
+  <si>
+    <t>วันที่ผลิตต้องเป็นวันในอดีต</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "วันที่ผลิตต้องเป็นวันในอดีต"</t>
+  </si>
+  <si>
+    <t>TD10</t>
+  </si>
+  <si>
+    <t>TD11</t>
+  </si>
+  <si>
+    <t>วันที่หมดอายุต้องเป็นวันในอนาคต</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "วันที่หมดอายุต้องเป็นวันในอนาคต"</t>
+  </si>
+  <si>
+    <t>TD12</t>
+  </si>
+  <si>
+    <t>TD13</t>
+  </si>
+  <si>
+    <t>กรุณากรอกจำนวนเข็ม</t>
+  </si>
+  <si>
+    <t>TD14</t>
+  </si>
+  <si>
+    <t>๑๐๐</t>
+  </si>
+  <si>
+    <t>จำนวนเข็มต้องเป็นตัวเลขอารบิก และห้ามมีช่องว่าง ตัวอักษร หรือตัวอักษรพิเศษ</t>
+  </si>
+  <si>
+    <t>จำนวนเข็มต้องเป็นตัวเลขอารบิกและมีจำนวนตัวเลข 1-10 ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD15</t>
+  </si>
+  <si>
+    <t>1 0 0</t>
+  </si>
+  <si>
+    <t>TD16</t>
+  </si>
+  <si>
+    <t>100เข็ม</t>
+  </si>
+  <si>
+    <t>TD17</t>
+  </si>
+  <si>
+    <t>100.</t>
+  </si>
+  <si>
+    <t>TD18</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>จำนวนเข็มต้องมีค่าระหว่าง 1-10000 เท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "จำนวนเข็มต้องมีค่าระหว่าง 1-10000 เท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD19</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>TD20</t>
+  </si>
+  <si>
+    <t>กรุณากรอกชื่อบริษัทผู้ผลิต</t>
+  </si>
+  <si>
+    <t>TD21</t>
+  </si>
+  <si>
+    <t>ファイザー</t>
+  </si>
+  <si>
+    <t>ชื่อบริษัทผู้ผลิตต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้ผลิตต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD22</t>
+  </si>
+  <si>
+    <t>TD23</t>
+  </si>
+  <si>
+    <t>ชื่อบริษัทผู้ผลิตต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้ผลิตต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD24</t>
+  </si>
+  <si>
+    <t>บริษัทไฟเซอร์ อิงก์ (Pfizer INC.) 2 บริษัท  ไฟเซอร์</t>
+  </si>
+  <si>
+    <t>TD25</t>
+  </si>
+  <si>
+    <t>กรุณากรอกชื่อบริษัทผู้นำเข้า</t>
+  </si>
+  <si>
+    <t>ชื่อบริษัทผู้นำเข้าวัคซีนห้ามเป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>TD26</t>
+  </si>
+  <si>
+    <t>ชื่อบริษัทผู้นำเข้าต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้นำเข้าต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD27</t>
+  </si>
+  <si>
+    <t>TD28</t>
+  </si>
+  <si>
+    <t>ชื่อบริษัทผู้นำเข้าต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้นำเข้าต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD29</t>
+  </si>
+  <si>
+    <t>TD30</t>
+  </si>
+  <si>
+    <t>กรุณากรอกรุ่นการผลิต</t>
+  </si>
+  <si>
+    <t>TD31</t>
+  </si>
+  <si>
+    <t>ก1017</t>
+  </si>
+  <si>
+    <t>รุ่นการผลิตต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิก และห้ามมีช่องว่าง</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "รุ่นการผลิตต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิก และห้ามมีช่องว่าง"</t>
+  </si>
+  <si>
+    <t>TD32</t>
+  </si>
+  <si>
+    <t>A๑๐๑๗</t>
+  </si>
+  <si>
+    <t>TD33</t>
+  </si>
+  <si>
+    <t>A 1017</t>
+  </si>
+  <si>
+    <t>TD34</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>รุ่นการผลิตต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "รุ่นการผลิตต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD35</t>
+  </si>
+  <si>
+    <t>A10173213123213215251</t>
+  </si>
+  <si>
+    <t>TD36</t>
+  </si>
+  <si>
+    <t>กรุณากรอกเลขทะเบียนวัคซีน</t>
+  </si>
+  <si>
+    <t>TD37</t>
+  </si>
+  <si>
+    <t>1ก 108/50</t>
+  </si>
+  <si>
+    <t>เลขทะเบียนวัคซีนต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิกเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขทะเบียนวัคซีนต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิกเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD38</t>
+  </si>
+  <si>
+    <t>1C ๑๐๘/๕๐</t>
+  </si>
+  <si>
+    <t>TD39</t>
+  </si>
+  <si>
+    <t>1C 1</t>
+  </si>
+  <si>
+    <t>เลขทะเบียนวัคซีนต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขทะเบียนวัคซีนต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD40</t>
+  </si>
+  <si>
+    <t>1C 10823122/5011 (NB)</t>
+  </si>
+  <si>
+    <t>TD41</t>
+  </si>
+  <si>
+    <t>กรุณากรอกราคาต่อเข็ม</t>
+  </si>
+  <si>
+    <t>TD42</t>
+  </si>
+  <si>
+    <t>ราคาต่อเข็มต้องเป็นตัวเลขอารบิก และห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ</t>
+  </si>
+  <si>
+    <t>ราคาต่อเข็มต้องเป็นตัวเลขอารบิกและมีจำนวนตัวเลข 1-10 ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD43</t>
+  </si>
+  <si>
+    <t>TD44</t>
+  </si>
+  <si>
+    <t>100บาท</t>
+  </si>
+  <si>
+    <t>TD45</t>
+  </si>
+  <si>
+    <t>TD46</t>
+  </si>
+  <si>
+    <t>5001</t>
+  </si>
+  <si>
+    <t>ราคาต่อเข็มต้องมีค่าไม่เกิน 5000</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "ราคาต่อเข็มต้องมีค่าไม่เกิน 5000"</t>
+  </si>
+  <si>
+    <t>TD47</t>
+  </si>
+  <si>
+    <t>Pizer</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>A1017</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>4999</t>
+  </si>
+  <si>
+    <t>TD48</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TD49</t>
+  </si>
+  <si>
+    <t>1.วัคซีนจอห์นสันแอนด์จอห์นสัน (Johnson &amp; Johnson)</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>บริษัทไฟเซอร์อิงก์ (Pfizer INC.) 2 บริษัท ไฟเซอร์</t>
+  </si>
+  <si>
+    <t>A101732131232132152</t>
+  </si>
+  <si>
+    <t>1C 1082122/501 (NB)</t>
+  </si>
+  <si>
+    <t>TD50</t>
+  </si>
+  <si>
+    <t>1. วัคซีนจอห์นสันแอนด์จอห์นสัน (Johnson &amp; Johnson)</t>
+  </si>
+  <si>
+    <t>บริษัทไฟเซอร์ อิงก์ (Pfizer INC.) 2 บริษัท ไฟเซอร์</t>
+  </si>
+  <si>
+    <t>A1017321312321321525</t>
+  </si>
+  <si>
+    <t>1C 10823122/501 (NB)</t>
+  </si>
+  <si>
     <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อวัคซีนต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น"</t>
   </si>
   <si>
-    <t>TD5</t>
-  </si>
-  <si>
-    <t>1. วัคซีนจอห์นสันแอนด์จอห์นสัน (Johnson &amp; Johnson).</t>
-  </si>
-  <si>
-    <t>ชื่อวัคซีนต้องมีจำนวนตัวอักษร 2-50 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>TD6</t>
-  </si>
-  <si>
-    <t>วันที่นำเข้าห้ามเป็นวันในอนาคต และต้องเป็นวันที่มากกว่าวันที่ผลิต และน้อยกว่าวันที่หมดอายุ</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "วันที่นำเข้าห้ามเป็นวันในอนาคต และต้องเป็นวันที่มากกว่าวันที่ผลิต และน้อยกว่าวันที่หมดอายุ"</t>
-  </si>
-  <si>
-    <t>TD7</t>
-  </si>
-  <si>
-    <t>วันที่น้อยกว่าวันที่ผลิต</t>
-  </si>
-  <si>
-    <t>TD8</t>
-  </si>
-  <si>
-    <t>วันที่มากกว่าวันที่หมดอายุ</t>
-  </si>
-  <si>
-    <t>TD9</t>
-  </si>
-  <si>
-    <t>วันปัจจุบัน</t>
-  </si>
-  <si>
-    <t>วันที่ผลิตต้องเป็นวันในอดีต</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "วันที่ผลิตต้องเป็นวันในอดีต"</t>
-  </si>
-  <si>
-    <t>TD10</t>
-  </si>
-  <si>
-    <t>TD11</t>
-  </si>
-  <si>
-    <t>วันที่หมดอายุต้องเป็นวันในอนาคต</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "วันที่หมดอายุต้องเป็นวันในอนาคต"</t>
-  </si>
-  <si>
-    <t>TD12</t>
-  </si>
-  <si>
-    <t>TD13</t>
-  </si>
-  <si>
-    <t>กรุณากรอกจำนวนเข็ม</t>
-  </si>
-  <si>
-    <t>TD14</t>
-  </si>
-  <si>
-    <t>๑๐๐</t>
-  </si>
-  <si>
-    <t>จำนวนเข็มต้องเป็นตัวเลขอารบิก และห้ามมีช่องว่าง ตัวอักษร หรือตัวอักษรพิเศษ</t>
-  </si>
-  <si>
-    <t>จำนวนเข็มต้องเป็นตัวเลขอารบิกและมีจำนวนตัวเลข 1-10 ตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>TD15</t>
-  </si>
-  <si>
-    <t>1 0 0</t>
-  </si>
-  <si>
-    <t>TD16</t>
-  </si>
-  <si>
-    <t>100เข็ม</t>
-  </si>
-  <si>
-    <t>TD17</t>
-  </si>
-  <si>
-    <t>100.</t>
-  </si>
-  <si>
-    <t>TD18</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>จำนวนเข็มต้องมีค่าระหว่าง 1-10000 เท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "จำนวนเข็มต้องมีค่าระหว่าง 1-10000 เท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD19</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>TD20</t>
-  </si>
-  <si>
-    <t>กรุณากรอกชื่อบริษัทผู้ผลิต</t>
-  </si>
-  <si>
-    <t>TD21</t>
-  </si>
-  <si>
-    <t>ファイザー</t>
-  </si>
-  <si>
-    <t>ชื่อบริษัทผู้ผลิตต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้ผลิตต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD22</t>
-  </si>
-  <si>
-    <t>TD23</t>
-  </si>
-  <si>
-    <t>ชื่อบริษัทผู้ผลิตต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้ผลิตต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD24</t>
-  </si>
-  <si>
-    <t>บริษัทไฟเซอร์ อิงก์ (Pfizer INC.) 2 บริษัท  ไฟเซอร์</t>
-  </si>
-  <si>
-    <t>TD25</t>
-  </si>
-  <si>
-    <t>กรุณากรอกชื่อบริษัทผู้นำเข้า</t>
-  </si>
-  <si>
-    <t>ชื่อบริษัทผู้นำเข้าวัคซีนห้ามเป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>TD26</t>
-  </si>
-  <si>
-    <t>ชื่อบริษัทผู้นำเข้าต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้นำเข้าต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD27</t>
-  </si>
-  <si>
-    <t>TD28</t>
-  </si>
-  <si>
-    <t>ชื่อบริษัทผู้นำเข้าต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้นำเข้าต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD29</t>
-  </si>
-  <si>
-    <t>TD30</t>
-  </si>
-  <si>
-    <t>กรุณากรอกรุ่นการผลิต</t>
-  </si>
-  <si>
-    <t>TD31</t>
-  </si>
-  <si>
-    <t>ก1017</t>
-  </si>
-  <si>
-    <t>รุ่นการผลิตต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิก และห้ามมีช่องว่าง</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "รุ่นการผลิตต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิก และห้ามมีช่องว่าง"</t>
-  </si>
-  <si>
-    <t>TD32</t>
-  </si>
-  <si>
-    <t>A๑๐๑๗</t>
-  </si>
-  <si>
-    <t>TD33</t>
-  </si>
-  <si>
-    <t>A 1017</t>
-  </si>
-  <si>
-    <t>TD34</t>
-  </si>
-  <si>
-    <t>A101</t>
-  </si>
-  <si>
-    <t>รุ่นการผลิตต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "รุ่นการผลิตต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD35</t>
-  </si>
-  <si>
-    <t>A10173213123213215251</t>
-  </si>
-  <si>
-    <t>TD36</t>
-  </si>
-  <si>
-    <t>กรุณากรอกเลขทะเบียนวัคซีน</t>
-  </si>
-  <si>
-    <t>TD37</t>
-  </si>
-  <si>
-    <t>1ก 108/50</t>
-  </si>
-  <si>
-    <t>เลขทะเบียนวัคซีนต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิกเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขทะเบียนวัคซีนต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิกเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD38</t>
-  </si>
-  <si>
-    <t>1C ๑๐๘/๕๐</t>
-  </si>
-  <si>
-    <t>TD39</t>
-  </si>
-  <si>
-    <t>1C 1</t>
-  </si>
-  <si>
-    <t>เลขทะเบียนวัคซีนต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขทะเบียนวัคซีนต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD40</t>
-  </si>
-  <si>
-    <t>1C 10823122/5011 (NB)</t>
-  </si>
-  <si>
-    <t>TD41</t>
-  </si>
-  <si>
-    <t>กรุณากรอกราคาต่อเข็ม</t>
-  </si>
-  <si>
-    <t>TD42</t>
-  </si>
-  <si>
-    <t>ราคาต่อเข็มต้องเป็นตัวเลขอารบิก และห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ</t>
-  </si>
-  <si>
-    <t>ราคาต่อเข็มต้องเป็นตัวเลขอารบิกและมีจำนวนตัวเลข 1-10 ตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>TD43</t>
-  </si>
-  <si>
-    <t>TD44</t>
-  </si>
-  <si>
-    <t>100บาท</t>
-  </si>
-  <si>
-    <t>TD45</t>
-  </si>
-  <si>
-    <t>TD46</t>
-  </si>
-  <si>
-    <t>5001</t>
-  </si>
-  <si>
-    <t>ราคาต่อเข็มต้องมีค่าไม่เกิน 5000</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ราคาต่อเข็มต้องมีค่าไม่เกิน 5000"</t>
-  </si>
-  <si>
-    <t>TD47</t>
-  </si>
-  <si>
-    <t>Pizer</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>A1017</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4999</t>
-  </si>
-  <si>
-    <t>TD48</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>TD49</t>
-  </si>
-  <si>
-    <t>1.วัคซีนจอห์นสันแอนด์จอห์นสัน (Johnson &amp; Johnson)</t>
-  </si>
-  <si>
-    <t>9999</t>
-  </si>
-  <si>
-    <t>บริษัทไฟเซอร์อิงก์ (Pfizer INC.) 2 บริษัท ไฟเซอร์</t>
-  </si>
-  <si>
-    <t>A101732131232132152</t>
-  </si>
-  <si>
-    <t>1C 1082122/501 (NB)</t>
-  </si>
-  <si>
     <t>ควรแสดงข้อความแจ้งเตือนว่า "แก้ไขข้อมูลสำเร็จ"</t>
-  </si>
-  <si>
-    <t>TD50</t>
-  </si>
-  <si>
-    <t>1. วัคซีนจอห์นสันแอนด์จอห์นสัน (Johnson &amp; Johnson)</t>
-  </si>
-  <si>
-    <t>บริษัทไฟเซอร์ อิงก์ (Pfizer INC.) 2 บริษัท ไฟเซอร์</t>
-  </si>
-  <si>
-    <t>A1017321312321321525</t>
-  </si>
-  <si>
-    <t>1C 10823122/501 (NB)</t>
   </si>
 </sst>
 </file>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T54" sqref="T54"/>
+    <sheetView tabSelected="1" topLeftCell="P36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1301,24 +1301,24 @@
         <v>18</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>24</v>
@@ -1351,7 +1351,7 @@
         <v>45</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>40</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
@@ -1410,7 +1410,7 @@
         <v>31</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>46</v>
@@ -1425,27 +1425,27 @@
         <v>18</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>25</v>
@@ -1472,7 +1472,7 @@
         <v>31</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>46</v>
@@ -1487,27 +1487,27 @@
         <v>18</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>25</v>
@@ -1534,7 +1534,7 @@
         <v>31</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>46</v>
@@ -1549,30 +1549,30 @@
         <v>18</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>26</v>
@@ -1596,7 +1596,7 @@
         <v>31</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>46</v>
@@ -1611,12 +1611,12 @@
         <v>18</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>46</v>
@@ -1673,12 +1673,12 @@
         <v>18</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
@@ -1699,7 +1699,7 @@
         <v>25</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>27</v>
@@ -1720,7 +1720,7 @@
         <v>31</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>46</v>
@@ -1735,12 +1735,12 @@
         <v>18</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
@@ -1782,7 +1782,7 @@
         <v>31</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>46</v>
@@ -1797,12 +1797,12 @@
         <v>18</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -1842,10 +1842,10 @@
         <v>31</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>33</v>
@@ -1862,31 +1862,31 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>28</v>
@@ -1904,10 +1904,10 @@
         <v>31</v>
       </c>
       <c r="O15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>40</v>
@@ -1924,31 +1924,31 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>28</v>
@@ -1966,10 +1966,10 @@
         <v>31</v>
       </c>
       <c r="O16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>40</v>
@@ -1986,31 +1986,31 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>28</v>
@@ -2028,10 +2028,10 @@
         <v>31</v>
       </c>
       <c r="O17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="Q17" s="8" t="s">
         <v>40</v>
@@ -2048,31 +2048,31 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>28</v>
@@ -2090,10 +2090,10 @@
         <v>31</v>
       </c>
       <c r="O18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>40</v>
@@ -2110,31 +2110,31 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>28</v>
@@ -2152,7 +2152,7 @@
         <v>31</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>46</v>
@@ -2167,36 +2167,36 @@
         <v>18</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>28</v>
@@ -2214,7 +2214,7 @@
         <v>31</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>46</v>
@@ -2229,12 +2229,12 @@
         <v>18</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>21</v>
@@ -2274,10 +2274,10 @@
         <v>31</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>33</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -2321,7 +2321,7 @@
         <v>27</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>28</v>
@@ -2336,7 +2336,7 @@
         <v>31</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>46</v>
@@ -2351,12 +2351,12 @@
         <v>18</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>21</v>
@@ -2398,7 +2398,7 @@
         <v>31</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>46</v>
@@ -2413,12 +2413,12 @@
         <v>18</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>21</v>
@@ -2460,7 +2460,7 @@
         <v>31</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>46</v>
@@ -2475,12 +2475,12 @@
         <v>18</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>21</v>
@@ -2507,7 +2507,7 @@
         <v>27</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>28</v>
@@ -2522,7 +2522,7 @@
         <v>31</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>46</v>
@@ -2537,12 +2537,12 @@
         <v>18</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>21</v>
@@ -2582,10 +2582,10 @@
         <v>31</v>
       </c>
       <c r="O26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="Q26" s="8" t="s">
         <v>40</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>21</v>
@@ -2632,7 +2632,7 @@
         <v>28</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>29</v>
@@ -2644,7 +2644,7 @@
         <v>31</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>46</v>
@@ -2659,12 +2659,12 @@
         <v>18</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>21</v>
@@ -2706,7 +2706,7 @@
         <v>31</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>46</v>
@@ -2721,12 +2721,12 @@
         <v>18</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>21</v>
@@ -2768,7 +2768,7 @@
         <v>31</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>46</v>
@@ -2783,12 +2783,12 @@
         <v>18</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>21</v>
@@ -2818,7 +2818,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>29</v>
@@ -2830,7 +2830,7 @@
         <v>31</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>46</v>
@@ -2845,12 +2845,12 @@
         <v>18</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
@@ -2890,10 +2890,10 @@
         <v>31</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>33</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>21</v>
@@ -2943,7 +2943,7 @@
         <v>28</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>30</v>
@@ -2952,7 +2952,7 @@
         <v>31</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>46</v>
@@ -2967,12 +2967,12 @@
         <v>18</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>21</v>
@@ -3005,7 +3005,7 @@
         <v>28</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>30</v>
@@ -3014,7 +3014,7 @@
         <v>31</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>46</v>
@@ -3029,12 +3029,12 @@
         <v>18</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>21</v>
@@ -3067,7 +3067,7 @@
         <v>28</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>30</v>
@@ -3076,7 +3076,7 @@
         <v>31</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>46</v>
@@ -3091,12 +3091,12 @@
         <v>18</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>21</v>
@@ -3129,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>30</v>
@@ -3138,7 +3138,7 @@
         <v>31</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>46</v>
@@ -3153,12 +3153,12 @@
         <v>18</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>21</v>
@@ -3191,7 +3191,7 @@
         <v>28</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>30</v>
@@ -3200,7 +3200,7 @@
         <v>31</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>46</v>
@@ -3215,12 +3215,12 @@
         <v>18</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>21</v>
@@ -3260,10 +3260,10 @@
         <v>31</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q37" s="9" t="s">
         <v>33</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>21</v>
@@ -3316,13 +3316,13 @@
         <v>29</v>
       </c>
       <c r="M38" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>46</v>
@@ -3337,12 +3337,12 @@
         <v>18</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>21</v>
@@ -3378,13 +3378,13 @@
         <v>29</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>46</v>
@@ -3399,12 +3399,12 @@
         <v>18</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>21</v>
@@ -3440,13 +3440,13 @@
         <v>29</v>
       </c>
       <c r="M40" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>46</v>
@@ -3461,12 +3461,12 @@
         <v>18</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>21</v>
@@ -3502,13 +3502,13 @@
         <v>29</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>46</v>
@@ -3523,12 +3523,12 @@
         <v>18</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>21</v>
@@ -3568,10 +3568,10 @@
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q42" s="9" t="s">
         <v>33</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>21</v>
@@ -3627,13 +3627,13 @@
         <v>30</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O43" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="P43" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>40</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>21</v>
@@ -3689,13 +3689,13 @@
         <v>30</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O44" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="P44" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="Q44" s="8" t="s">
         <v>40</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>21</v>
@@ -3751,13 +3751,13 @@
         <v>30</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="P45" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="Q45" s="8" t="s">
         <v>40</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>21</v>
@@ -3813,13 +3813,13 @@
         <v>30</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="P46" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="Q46" s="8" t="s">
         <v>40</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>21</v>
@@ -3875,10 +3875,10 @@
         <v>30</v>
       </c>
       <c r="N47" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="O47" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>46</v>
@@ -3893,51 +3893,51 @@
         <v>18</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="4" t="s">
+      <c r="J48" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L48" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="L48" s="4" t="s">
+      <c r="M48" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="N48" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="O48" s="4" t="s">
         <v>46</v>
@@ -3960,31 +3960,31 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>28</v>
@@ -4022,43 +4022,43 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" s="4" t="s">
+      <c r="J50" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="K50" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="L50" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="L50" s="4" t="s">
+      <c r="M50" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>31</v>
@@ -4079,12 +4079,12 @@
         <v>18</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>21</v>
@@ -4096,7 +4096,7 @@
         <v>23</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>24</v>
@@ -4111,16 +4111,16 @@
         <v>27</v>
       </c>
       <c r="J51" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M51" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>31</v>
@@ -4141,7 +4141,7 @@
         <v>18</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
